--- a/natmiOut/YoungD7/LR-pairs_lrc2p/C3-C3ar1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/C3-C3ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83010728363139</v>
+        <v>40.942832</v>
       </c>
       <c r="H2">
-        <v>1.83010728363139</v>
+        <v>122.828496</v>
       </c>
       <c r="I2">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J2">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>152.624161929988</v>
+        <v>20.772035</v>
       </c>
       <c r="N2">
-        <v>152.624161929988</v>
+        <v>62.316105</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1140252092120093</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1140252092120093</v>
       </c>
       <c r="Q2">
-        <v>279.3185904062078</v>
+        <v>850.46593930312</v>
       </c>
       <c r="R2">
-        <v>279.3185904062078</v>
+        <v>7654.19345372808</v>
       </c>
       <c r="S2">
-        <v>0.01639627291296671</v>
+        <v>0.02945271160542749</v>
       </c>
       <c r="T2">
-        <v>0.01639627291296671</v>
+        <v>0.02945271160542749</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>74.57477241737681</v>
+        <v>40.942832</v>
       </c>
       <c r="H3">
-        <v>74.57477241737681</v>
+        <v>122.828496</v>
       </c>
       <c r="I3">
-        <v>0.6681293123709416</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J3">
-        <v>0.6681293123709416</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>152.624161929988</v>
+        <v>161.208524</v>
       </c>
       <c r="N3">
-        <v>152.624161929988</v>
+        <v>483.625572</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8849318651667605</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8849318651667604</v>
       </c>
       <c r="Q3">
-        <v>11381.91214132172</v>
+        <v>6600.333515099969</v>
       </c>
       <c r="R3">
-        <v>11381.91214132172</v>
+        <v>59403.00163589972</v>
       </c>
       <c r="S3">
-        <v>0.6681293123709416</v>
+        <v>0.228577901284522</v>
       </c>
       <c r="T3">
-        <v>0.6681293123709416</v>
+        <v>0.228577901284522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.8682733021744</v>
+        <v>40.942832</v>
       </c>
       <c r="H4">
-        <v>34.8682733021744</v>
+        <v>122.828496</v>
       </c>
       <c r="I4">
-        <v>0.3123913719046829</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J4">
-        <v>0.3123913719046829</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>152.624161929988</v>
+        <v>0.1899903333333333</v>
       </c>
       <c r="N4">
-        <v>152.624161929988</v>
+        <v>0.569971</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.001042925621230309</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.001042925621230309</v>
       </c>
       <c r="Q4">
-        <v>5321.740990690143</v>
+        <v>7.778742299290668</v>
       </c>
       <c r="R4">
-        <v>5321.740990690143</v>
+        <v>70.008680693616</v>
       </c>
       <c r="S4">
-        <v>0.3123913719046829</v>
+        <v>0.0002693876885671387</v>
       </c>
       <c r="T4">
-        <v>0.3123913719046829</v>
+        <v>0.0002693876885671387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,551 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>79.68771233333334</v>
+      </c>
+      <c r="H5">
+        <v>239.063137</v>
+      </c>
+      <c r="I5">
+        <v>0.5027335710876245</v>
+      </c>
+      <c r="J5">
+        <v>0.5027335710876245</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>20.772035</v>
+      </c>
+      <c r="N5">
+        <v>62.316105</v>
+      </c>
+      <c r="O5">
+        <v>0.1140252092120093</v>
+      </c>
+      <c r="P5">
+        <v>0.1140252092120093</v>
+      </c>
+      <c r="Q5">
+        <v>1655.275949657932</v>
+      </c>
+      <c r="R5">
+        <v>14897.48354692138</v>
+      </c>
+      <c r="S5">
+        <v>0.05732430062116695</v>
+      </c>
+      <c r="T5">
+        <v>0.05732430062116695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.34412083373193</v>
-      </c>
-      <c r="H5">
-        <v>0.34412083373193</v>
-      </c>
-      <c r="I5">
-        <v>0.003083042811408648</v>
-      </c>
-      <c r="J5">
-        <v>0.003083042811408648</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>152.624161929988</v>
-      </c>
-      <c r="N5">
-        <v>152.624161929988</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>52.52115385098455</v>
-      </c>
-      <c r="R5">
-        <v>52.52115385098455</v>
-      </c>
-      <c r="S5">
-        <v>0.003083042811408648</v>
-      </c>
-      <c r="T5">
-        <v>0.003083042811408648</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>79.68771233333334</v>
+      </c>
+      <c r="H6">
+        <v>239.063137</v>
+      </c>
+      <c r="I6">
+        <v>0.5027335710876245</v>
+      </c>
+      <c r="J6">
+        <v>0.5027335710876245</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>161.208524</v>
+      </c>
+      <c r="N6">
+        <v>483.625572</v>
+      </c>
+      <c r="O6">
+        <v>0.8849318651667605</v>
+      </c>
+      <c r="P6">
+        <v>0.8849318651667604</v>
+      </c>
+      <c r="Q6">
+        <v>12846.33848619326</v>
+      </c>
+      <c r="R6">
+        <v>115617.0463757394</v>
+      </c>
+      <c r="S6">
+        <v>0.4448849567445177</v>
+      </c>
+      <c r="T6">
+        <v>0.4448849567445177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>79.68771233333334</v>
+      </c>
+      <c r="H7">
+        <v>239.063137</v>
+      </c>
+      <c r="I7">
+        <v>0.5027335710876245</v>
+      </c>
+      <c r="J7">
+        <v>0.5027335710876245</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1899903333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.569971</v>
+      </c>
+      <c r="O7">
+        <v>0.001042925621230309</v>
+      </c>
+      <c r="P7">
+        <v>0.001042925621230309</v>
+      </c>
+      <c r="Q7">
+        <v>15.13989502878078</v>
+      </c>
+      <c r="R7">
+        <v>136.259055259027</v>
+      </c>
+      <c r="S7">
+        <v>0.0005243137219398926</v>
+      </c>
+      <c r="T7">
+        <v>0.0005243137219398925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>37.53186833333334</v>
+      </c>
+      <c r="H8">
+        <v>112.595605</v>
+      </c>
+      <c r="I8">
+        <v>0.2367809244903433</v>
+      </c>
+      <c r="J8">
+        <v>0.2367809244903433</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>20.772035</v>
+      </c>
+      <c r="N8">
+        <v>62.316105</v>
+      </c>
+      <c r="O8">
+        <v>0.1140252092120093</v>
+      </c>
+      <c r="P8">
+        <v>0.1140252092120093</v>
+      </c>
+      <c r="Q8">
+        <v>779.6132826353917</v>
+      </c>
+      <c r="R8">
+        <v>7016.519543718526</v>
+      </c>
+      <c r="S8">
+        <v>0.02699899445242438</v>
+      </c>
+      <c r="T8">
+        <v>0.02699899445242437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>37.53186833333334</v>
+      </c>
+      <c r="H9">
+        <v>112.595605</v>
+      </c>
+      <c r="I9">
+        <v>0.2367809244903433</v>
+      </c>
+      <c r="J9">
+        <v>0.2367809244903433</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>161.208524</v>
+      </c>
+      <c r="N9">
+        <v>483.625572</v>
+      </c>
+      <c r="O9">
+        <v>0.8849318651667605</v>
+      </c>
+      <c r="P9">
+        <v>0.8849318651667604</v>
+      </c>
+      <c r="Q9">
+        <v>6050.457096979007</v>
+      </c>
+      <c r="R9">
+        <v>54454.11387281107</v>
+      </c>
+      <c r="S9">
+        <v>0.2095349851451494</v>
+      </c>
+      <c r="T9">
+        <v>0.2095349851451493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>37.53186833333334</v>
+      </c>
+      <c r="H10">
+        <v>112.595605</v>
+      </c>
+      <c r="I10">
+        <v>0.2367809244903433</v>
+      </c>
+      <c r="J10">
+        <v>0.2367809244903433</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1899903333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.569971</v>
+      </c>
+      <c r="O10">
+        <v>0.001042925621230309</v>
+      </c>
+      <c r="P10">
+        <v>0.001042925621230309</v>
+      </c>
+      <c r="Q10">
+        <v>7.130692175272778</v>
+      </c>
+      <c r="R10">
+        <v>64.176229577455</v>
+      </c>
+      <c r="S10">
+        <v>0.0002469448927695782</v>
+      </c>
+      <c r="T10">
+        <v>0.0002469448927695781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3464216666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.039265</v>
+      </c>
+      <c r="I11">
+        <v>0.002185503843515531</v>
+      </c>
+      <c r="J11">
+        <v>0.002185503843515531</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>20.772035</v>
+      </c>
+      <c r="N11">
+        <v>62.316105</v>
+      </c>
+      <c r="O11">
+        <v>0.1140252092120093</v>
+      </c>
+      <c r="P11">
+        <v>0.1140252092120093</v>
+      </c>
+      <c r="Q11">
+        <v>7.195882984758332</v>
+      </c>
+      <c r="R11">
+        <v>64.76294686282499</v>
+      </c>
+      <c r="S11">
+        <v>0.000249202532990509</v>
+      </c>
+      <c r="T11">
+        <v>0.000249202532990509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3464216666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.039265</v>
+      </c>
+      <c r="I12">
+        <v>0.002185503843515531</v>
+      </c>
+      <c r="J12">
+        <v>0.002185503843515531</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>161.208524</v>
+      </c>
+      <c r="N12">
+        <v>483.625572</v>
+      </c>
+      <c r="O12">
+        <v>0.8849318651667605</v>
+      </c>
+      <c r="P12">
+        <v>0.8849318651667604</v>
+      </c>
+      <c r="Q12">
+        <v>55.84612556495333</v>
+      </c>
+      <c r="R12">
+        <v>502.61513008458</v>
+      </c>
+      <c r="S12">
+        <v>0.001934021992571323</v>
+      </c>
+      <c r="T12">
+        <v>0.001934021992571323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3464216666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.039265</v>
+      </c>
+      <c r="I13">
+        <v>0.002185503843515531</v>
+      </c>
+      <c r="J13">
+        <v>0.002185503843515531</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1899903333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.569971</v>
+      </c>
+      <c r="O13">
+        <v>0.001042925621230309</v>
+      </c>
+      <c r="P13">
+        <v>0.001042925621230309</v>
+      </c>
+      <c r="Q13">
+        <v>0.06581676792388888</v>
+      </c>
+      <c r="R13">
+        <v>0.592350911315</v>
+      </c>
+      <c r="S13">
+        <v>2.279317953699664E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.279317953699664E-06</v>
       </c>
     </row>
   </sheetData>
